--- a/Excel/Ingredient@c.xlsx
+++ b/Excel/Ingredient@c.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\u3d\XiaoChu\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BA644D-BB73-4EE3-A016-CBE211F50B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38499C39-6AFD-4BF0-8A3D-7CBF5BBDC1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15630" yWindow="1650" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
   <si>
     <t>Id</t>
   </si>
@@ -86,6 +86,198 @@
   </si>
   <si>
     <t>boiled-egg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茄子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辣椒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淀粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡翅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰糖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西蓝花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酱油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白糖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洋葱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>番茄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扁豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糯米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驴肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒜薹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五花肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸蛋黄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛舌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶豆腐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豉油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白酒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -150,15 +342,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -441,127 +630,590 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:D16"/>
+  <dimension ref="C2:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="17.875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
         <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C13" s="1">
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="1">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="1">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="1">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="1">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="1">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="1">
+        <v>16</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="1">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="1">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C25" s="1">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C26" s="1">
+        <v>20</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C27" s="1">
+        <v>21</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C28" s="1">
+        <v>22</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C29" s="1">
+        <v>23</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C30" s="1">
+        <v>24</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C31" s="1">
+        <v>25</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C32" s="1">
+        <v>26</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C33" s="1">
+        <v>27</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C34" s="1">
+        <v>28</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C35" s="1">
+        <v>29</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C36" s="1">
+        <v>30</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C37" s="1">
+        <v>31</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C38" s="1">
+        <v>32</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C39" s="1">
+        <v>33</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C40" s="1">
+        <v>34</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C41" s="1">
+        <v>35</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C42" s="1">
+        <v>36</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C43" s="1">
+        <v>37</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C44" s="1">
+        <v>38</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C45" s="1">
+        <v>39</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C46" s="1">
+        <v>40</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C47" s="1">
+        <v>41</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C48" s="1">
+        <v>42</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C49" s="1">
+        <v>43</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C50" s="1">
+        <v>44</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C51" s="1">
+        <v>45</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C52" s="1">
+        <v>46</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C53" s="1">
+        <v>47</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C54" s="1">
+        <v>48</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
